--- a/docs/calculations.xlsx
+++ b/docs/calculations.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurmorbach/Documents/github/dt-filters/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76359401-32B4-E54E-9AD3-6D5E870B36E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{338A6EF0-FFC8-F449-A6E2-B43465701610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" activeTab="1" xr2:uid="{7731444C-3C5C-9349-AA35-2A99DCC4BEFB}"/>
+    <workbookView xWindow="23160" yWindow="500" windowWidth="28040" windowHeight="15940" xr2:uid="{7731444C-3C5C-9349-AA35-2A99DCC4BEFB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="mixer" sheetId="2" r:id="rId2"/>
+    <sheet name="LNA" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="76">
   <si>
     <t>center freq</t>
   </si>
@@ -202,9 +203,6 @@
     <t>Rsh</t>
   </si>
   <si>
-    <t>Rsw + ƛZb</t>
-  </si>
-  <si>
     <t>output Zmixer</t>
   </si>
   <si>
@@ -224,6 +222,72 @@
   </si>
   <si>
     <t>Z11</t>
+  </si>
+  <si>
+    <t>Fator de qualidade diminui com  Rsw</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ƛZb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ƛ</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>L2</t>
+  </si>
+  <si>
+    <t>R_L1</t>
+  </si>
+  <si>
+    <t>flo</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>Z_antenna</t>
+  </si>
+  <si>
+    <t>gm1</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>R_L2</t>
+  </si>
+  <si>
+    <t>LNA</t>
+  </si>
+  <si>
+    <t>Zout</t>
+  </si>
+  <si>
+    <t>gm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4ƛ/(1-4 ƛ)</t>
+  </si>
+  <si>
+    <t>Zout_LNA</t>
+  </si>
+  <si>
+    <t>simu</t>
+  </si>
+  <si>
+    <t>teoretical</t>
+  </si>
+  <si>
+    <t>Z_in_filtro</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ƛZ_in_mixer</t>
   </si>
 </sst>
 </file>
@@ -556,7 +620,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -602,6 +666,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -623,16 +689,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>736600</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>75821</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>719758</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>144231</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>568202</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>93620</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -661,8 +727,345 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10172700" y="431800"/>
-          <a:ext cx="3285158" cy="2354031"/>
+          <a:off x="0" y="4056418"/>
+          <a:ext cx="2567978" cy="1809068"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>119530</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>133275</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>24654</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8195322E-04A7-D917-74D3-E70C52DDBD9C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10174941" y="7231530"/>
+          <a:ext cx="5945393" cy="2624418"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>702823</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>179883</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>743463</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>65583</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B39BB628-E47E-ADAD-C926-E4CE4488C974}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10115764" y="5409295"/>
+          <a:ext cx="5792993" cy="1768288"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>60941</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>156564</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>227386</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>118465</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93C8E6C4-261F-B2F6-6352-C20F816F2286}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10295647" y="3503388"/>
+          <a:ext cx="5918798" cy="1844489"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>240822</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>43599</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>615547</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>142267</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{166AC9C2-ED92-766E-E364-1DF71D20EFCD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10475528" y="671128"/>
+          <a:ext cx="7770607" cy="2817963"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>94776</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>18955</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>592833</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>13458</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32E41E9E-54FB-F539-4A02-8CD47DC5FEEE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="94776" y="5989851"/>
+          <a:ext cx="2497833" cy="591592"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>37910</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>33487</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>729776</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>64447</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C21B91D4-5D5D-3BAC-16AE-C3BFF21CB614}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="37910" y="6601472"/>
+          <a:ext cx="2691642" cy="628050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>33272</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>569914</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>187798</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Content Placeholder 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{207A3CA0-4F7D-756A-71D6-FD0A7866109F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noGrp="1" noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="33272"/>
+          <a:ext cx="7999414" cy="1983326"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -993,7 +1396,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE958926-AC7C-A248-9C00-175DCF599E12}">
   <dimension ref="B3:AU83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -10463,10 +10866,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB344B62-FA7E-2143-A9E1-3DFA930F1B23}">
-  <dimension ref="A3:J24"/>
+  <dimension ref="A3:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView zoomScale="134" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10475,34 +10878,51 @@
     <col min="2" max="2" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>50</v>
-      </c>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="40"/>
+      <c r="D3" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="40"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="40" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B4" s="40"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1">
         <v>5000000</v>
       </c>
+      <c r="D5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5">
+        <v>4000</v>
+      </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>2400000000</v>
       </c>
+      <c r="D6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.01</v>
+      </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -10511,55 +10931,83 @@
         <v>9600000000</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B8" s="1">
         <v>7.4999999999999996E-14</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" s="1">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="41">
         <f>B8/ATAN((B5*2*PI())/B7)</f>
         <v>2.2918393617307976E-11</v>
       </c>
+      <c r="G9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9">
+        <f>2/PI()^2</f>
+        <v>0.20264236728467555</v>
+      </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="42">
         <f>1/(B8*B7)</f>
         <v>1388.8888888888889</v>
       </c>
+      <c r="G10" t="s">
+        <v>70</v>
+      </c>
+      <c r="H10">
+        <f>(4*H9)/(1-(4*H9))</f>
+        <v>4.2789800854868858</v>
+      </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G13" t="s">
+        <v>72</v>
+      </c>
+      <c r="J13" t="s">
+        <v>73</v>
+      </c>
+      <c r="K13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B14" s="40"/>
       <c r="D14" s="40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E14" s="40"/>
       <c r="G14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H14" t="s">
         <v>43</v>
       </c>
       <c r="I14" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J14" t="s">
         <v>46</v>
       </c>
+      <c r="K14" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -10570,24 +11018,29 @@
         <v>42</v>
       </c>
       <c r="E15">
+        <f>B15</f>
         <v>20000</v>
       </c>
       <c r="G15">
-        <v>264</v>
+        <v>306.06313</v>
       </c>
       <c r="H15">
         <v>100</v>
       </c>
       <c r="I15">
-        <f>H15+((2/(PI()^2))*$B$10)</f>
-        <v>381.44773233982716</v>
+        <f>($H$9*$B$10)</f>
+        <v>281.44773233982716</v>
       </c>
       <c r="J15">
-        <f>(G15*I15)/(I15-G15)</f>
-        <v>857.42141914106344</v>
+        <f>$H$10*($E$15*$E$16)/($E$15+$E$16)</f>
+        <v>14263.266951622953</v>
+      </c>
+      <c r="K15">
+        <f>(I15*(G15-H15))/(I15+H15-G15)</f>
+        <v>769.33483572555235</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>43</v>
       </c>
@@ -10595,215 +11048,332 @@
         <v>100</v>
       </c>
       <c r="D16" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="E16">
-        <v>100</v>
+        <f>E5</f>
+        <v>4000</v>
       </c>
       <c r="G16">
-        <v>375</v>
+        <v>432.18680999999998</v>
       </c>
       <c r="H16">
         <v>200</v>
       </c>
       <c r="I16">
-        <f t="shared" ref="I16:I24" si="0">H16+((2/(PI()^2))*$B$10)</f>
-        <v>481.44773233982716</v>
+        <f t="shared" ref="I16:I23" si="0">($H$9*$B$10)</f>
+        <v>281.44773233982716</v>
       </c>
       <c r="J16">
-        <f t="shared" ref="J16:J24" si="1">(G16*I16)/(I16-G16)</f>
-        <v>1696.0708852966848</v>
+        <f t="shared" ref="J16:J24" si="1">$H$10*($E$15*$E$16)/($E$15+$E$16)</f>
+        <v>14263.266951622953</v>
+      </c>
+      <c r="K16">
+        <f t="shared" ref="K16:K24" si="2">(I16*(G16-H16))/(I16+H16-G16)</f>
+        <v>1326.5779049549881</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="B17" s="2">
         <f>B10</f>
         <v>1388.8888888888889</v>
       </c>
-      <c r="D17" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" s="2">
-        <f>B10</f>
-        <v>1388.8888888888889</v>
+      <c r="D17" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="4">
+        <f>H10*(E15*E16)/(E15+E16)</f>
+        <v>14263.266951622953</v>
       </c>
       <c r="G17">
-        <v>484</v>
+        <v>546.87450999999999</v>
       </c>
       <c r="H17">
         <v>300</v>
       </c>
       <c r="I17">
         <f t="shared" si="0"/>
-        <v>581.4477323398271</v>
+        <v>281.44773233982716</v>
       </c>
       <c r="J17">
         <f t="shared" si="1"/>
-        <v>2887.9143279710684</v>
+        <v>14263.266951622953</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="2"/>
+        <v>2009.7134808277588</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>46</v>
       </c>
       <c r="B18">
-        <v>1473</v>
-      </c>
-      <c r="D18" t="s">
-        <v>47</v>
-      </c>
-      <c r="E18">
-        <f>E16+((2/(PI()^2))*E17)</f>
-        <v>381.44773233982716</v>
+        <f>H10*(B15*E5)/(B15+E5)</f>
+        <v>14263.266951622953</v>
       </c>
       <c r="G18">
-        <v>594</v>
+        <v>656.92012</v>
       </c>
       <c r="H18">
         <v>400</v>
       </c>
       <c r="I18">
         <f t="shared" si="0"/>
-        <v>681.4477323398271</v>
+        <v>281.44773233982716</v>
       </c>
       <c r="J18">
         <f t="shared" si="1"/>
-        <v>4628.8216078246405</v>
+        <v>14263.266951622953</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="2"/>
+        <v>2948.0890420410974</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="B19">
-        <f>B16+((2/(PI()^2))*B17)</f>
-        <v>381.44773233982716</v>
-      </c>
-      <c r="D19" t="s">
-        <v>45</v>
-      </c>
-      <c r="E19">
-        <v>306</v>
+        <f>H9*B10</f>
+        <v>281.44773233982716</v>
       </c>
       <c r="G19">
-        <v>706</v>
+        <v>763.69399999999996</v>
       </c>
       <c r="H19">
         <v>500</v>
       </c>
       <c r="I19">
         <f t="shared" si="0"/>
-        <v>781.4477323398271</v>
+        <v>281.44773233982716</v>
       </c>
       <c r="J19">
         <f t="shared" si="1"/>
-        <v>7312.3748311874351</v>
+        <v>14263.266951622953</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="2"/>
+        <v>4180.3085070246689</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B20">
-        <f>(B19*B18)/(B19+B18)</f>
-        <v>302.98643630555688</v>
-      </c>
-      <c r="D20" t="s">
-        <v>46</v>
-      </c>
-      <c r="E20">
-        <f>(E19*E18)/(E18-E19)</f>
-        <v>1547.0710977799881</v>
+      <c r="B20" s="4">
+        <f>B16+((B19*B18)/(B19+B18))</f>
+        <v>376.0015735281612</v>
       </c>
       <c r="G20">
-        <v>818</v>
+        <v>867.27507000000003</v>
       </c>
       <c r="H20">
         <v>600</v>
       </c>
       <c r="I20">
         <f t="shared" si="0"/>
-        <v>881.4477323398271</v>
+        <v>281.44773233982716</v>
       </c>
       <c r="J20">
         <f t="shared" si="1"/>
-        <v>11364.066428602378</v>
+        <v>14263.266951622953</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="2"/>
+        <v>5307.6804173256296</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G21">
-        <v>929</v>
+        <v>967.60571000000004</v>
       </c>
       <c r="H21">
         <v>700</v>
       </c>
       <c r="I21">
         <f t="shared" si="0"/>
-        <v>981.4477323398271</v>
+        <v>281.44773233982716</v>
       </c>
       <c r="J21">
         <f t="shared" si="1"/>
-        <v>17384.258626017559</v>
+        <v>14263.266951622953</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="2"/>
+        <v>5441.1861498000198</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G22">
-        <v>1039</v>
+        <v>1069.1104</v>
       </c>
       <c r="H22">
         <v>800</v>
       </c>
       <c r="I22">
         <f t="shared" si="0"/>
-        <v>1081.4477323398271</v>
+        <v>281.44773233982716</v>
       </c>
       <c r="J22">
         <f t="shared" si="1"/>
-        <v>26470.770803622563</v>
+        <v>14263.266951622953</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="2"/>
+        <v>6139.1320054303951</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G23">
-        <v>1147</v>
+        <v>1173.7569000000001</v>
       </c>
       <c r="H23">
         <v>900</v>
       </c>
       <c r="I23">
         <f t="shared" si="0"/>
-        <v>1181.4477323398271</v>
+        <v>281.44773233982716</v>
       </c>
       <c r="J23">
         <f t="shared" si="1"/>
-        <v>39338.454433676765</v>
+        <v>14263.266951622953</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="2"/>
+        <v>10018.195081224965</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G24">
-        <v>1253</v>
+        <v>1276.027</v>
       </c>
       <c r="H24">
         <v>1000</v>
       </c>
       <c r="I24">
-        <f t="shared" si="0"/>
-        <v>1281.4477323398271</v>
+        <f t="shared" ref="I16:I24" si="3">((2/(PI()^2))*$B$10)</f>
+        <v>281.44773233982716</v>
       </c>
       <c r="J24">
         <f t="shared" si="1"/>
-        <v>56442.249576915216</v>
+        <v>14263.266951622953</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="2"/>
+        <v>14331.490349336091</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G26" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC098D99-A362-CB45-B775-30572C073B9E}">
+  <dimension ref="A11:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2400000000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12">
+        <v>50</v>
+      </c>
+      <c r="D12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1E-10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="1">
+        <v>9.8999999999999993E-9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1.6000000000000001E-9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="1">
+        <f>1/(E13*(2*PI()*B11)^2)</f>
+        <v>4.4420412301109089E-13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="1">
+        <f>1/(B14*(2*PI()*B11)^2)</f>
+        <v>2.7485130111311248E-12</v>
+      </c>
+      <c r="D15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="1">
+        <f>(2*PI()*B11*E13)/10</f>
+        <v>14.928848289858696</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="1">
+        <f>((2*PI()*B11*B14)^2)/B12</f>
+        <v>11.642659092536258</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>